--- a/StockSchema.xlsx
+++ b/StockSchema.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ExcelSheets\Option Chain\StocksExcels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\ExcelSheets\Option Chain\ExcelSheets\Option Chain\StocksExcels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D5F152-6995-4E5A-A2E6-5B6766FFADD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23DB8EC-9C95-408F-984D-9AFC83D5B527}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{04D8DE85-943D-4C7E-BB37-92C6E9AF8786}"/>
   </bookViews>
